--- a/src/main/resources/开图清单.xlsx
+++ b/src/main/resources/开图清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26880" windowHeight="13020"/>
+    <workbookView windowWidth="25600" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="443">
   <si>
     <t>text</t>
   </si>
@@ -50,7 +50,7 @@
     <t>数据库查询指令</t>
   </si>
   <si>
-    <t>打开慈云站监控	接线图</t>
+    <t>打开慈云站监控接线图</t>
   </si>
   <si>
     <t xml:space="preserve">EB.hb_慈云站监控.fac.pic.g	</t>
@@ -87,6 +87,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XX</t>
     </r>
     <r>
@@ -231,7 +236,7 @@
     <t>任一母线电压限值</t>
   </si>
   <si>
-    <t>打开清苑站监控	接线图</t>
+    <t>打开清苑站监控接线图</t>
   </si>
   <si>
     <t xml:space="preserve">EB.hb_清苑站监控.fac.pic.g	</t>
@@ -243,7 +248,7 @@
     <t>任一变电站各主变容量</t>
   </si>
   <si>
-    <t>打开开善站监控	接线图</t>
+    <t>打开开善站监控接线图</t>
   </si>
   <si>
     <t xml:space="preserve">EB.hb_开善站监控.fac.pic.g	</t>
@@ -255,7 +260,7 @@
     <t>任一开关载流量及实时负载情况</t>
   </si>
   <si>
-    <t>打开保北站监控	接线图</t>
+    <t>打开保北站监控接线图</t>
   </si>
   <si>
     <t xml:space="preserve">EB.hb_保北站监控.fac.pic.g	</t>
@@ -337,6 +342,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XXX</t>
     </r>
     <r>
@@ -359,6 +369,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XX</t>
     </r>
     <r>
@@ -381,6 +396,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XX</t>
     </r>
     <r>
@@ -415,6 +435,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XX</t>
     </r>
     <r>
@@ -437,6 +462,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XX</t>
     </r>
     <r>
@@ -459,6 +489,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XX</t>
     </r>
     <r>
@@ -497,6 +532,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XXX</t>
     </r>
     <r>
@@ -519,6 +559,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XXX</t>
     </r>
     <r>
@@ -541,6 +586,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>XXX</t>
     </r>
     <r>
@@ -575,6 +625,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>X</t>
     </r>
     <r>
@@ -629,6 +684,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>X</t>
     </r>
     <r>
@@ -770,6 +830,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -1533,6 +1598,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>12</t>
     </r>
     <r>
@@ -1562,6 +1632,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>12</t>
     </r>
     <r>
@@ -1591,6 +1666,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>12</t>
     </r>
     <r>
@@ -1620,6 +1700,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>12</t>
     </r>
     <r>
@@ -1649,6 +1734,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>12</t>
     </r>
     <r>
@@ -1678,6 +1768,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>12</t>
     </r>
     <r>
@@ -1707,6 +1802,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>12</t>
     </r>
     <r>
@@ -1735,7 +1835,19 @@
     </r>
   </si>
   <si>
+    <t>打开慈云站监控	接线图</t>
+  </si>
+  <si>
     <t>开图指令</t>
+  </si>
+  <si>
+    <t>打开清苑站监控	接线图</t>
+  </si>
+  <si>
+    <t>打开开善站监控	接线图</t>
+  </si>
+  <si>
+    <t>打开保北站监控	接线图</t>
   </si>
 </sst>
 </file>
@@ -1774,12 +1886,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9.8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2931,21 +3043,21 @@
   <dimension ref="A1:M219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="19.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88888888888889" style="1"/>
-    <col min="3" max="3" width="32.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.88888888888889" style="1"/>
-    <col min="11" max="11" width="28.6666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88888888888889" style="1"/>
-    <col min="13" max="13" width="29.2222222222222" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="34.2727272727273" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.89090909090909" style="1"/>
+    <col min="3" max="3" width="32.7818181818182" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7818181818182" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.3363636363636" style="1" customWidth="1"/>
+    <col min="6" max="10" width="8.89090909090909" style="1"/>
+    <col min="11" max="11" width="28.6636363636364" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.89090909090909" style="1"/>
+    <col min="13" max="13" width="29.2181818181818" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.89090909090909" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -2964,23 +3076,18 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1">
         <v>1</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
@@ -2995,18 +3102,13 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="1">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3026,18 +3128,13 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3057,18 +3154,13 @@
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
       <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3088,18 +3180,13 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3119,18 +3206,13 @@
       <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="L6" s="1">
         <v>6</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3150,18 +3232,13 @@
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="1">
         <v>7</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3181,18 +3258,13 @@
       <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="1">
         <v>8</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3212,18 +3284,13 @@
       <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="L9" s="1">
         <v>9</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3243,18 +3310,13 @@
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="1">
         <v>10</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3274,18 +3336,13 @@
       <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="1">
         <v>11</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3305,18 +3362,13 @@
       <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>51</v>
       </c>
       <c r="L12" s="1">
         <v>12</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3336,18 +3388,13 @@
       <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>55</v>
       </c>
       <c r="L13" s="1">
         <v>13</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3367,18 +3414,13 @@
       <c r="E14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>59</v>
       </c>
       <c r="L14" s="1">
         <v>14</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3398,23 +3440,18 @@
       <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="L15" s="1">
         <v>15</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:13">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="1">
@@ -3429,23 +3466,18 @@
       <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="L16" s="1">
         <v>16</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:13">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="1">
@@ -3460,23 +3492,18 @@
       <c r="E17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>71</v>
       </c>
       <c r="L17" s="1">
         <v>17</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:13">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B18" s="1">
@@ -3491,18 +3518,13 @@
       <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="5" t="s">
         <v>75</v>
       </c>
       <c r="L18" s="1">
         <v>18</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3522,18 +3544,13 @@
       <c r="E19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="5" t="s">
         <v>79</v>
       </c>
       <c r="L19" s="1">
         <v>19</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3553,18 +3570,13 @@
       <c r="E20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="5" t="s">
         <v>83</v>
       </c>
       <c r="L20" s="1">
         <v>20</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3584,18 +3596,13 @@
       <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="5" t="s">
         <v>87</v>
       </c>
       <c r="L21" s="1">
         <v>21</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3615,18 +3622,13 @@
       <c r="E22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="5" t="s">
         <v>91</v>
       </c>
       <c r="L22" s="1">
         <v>22</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3646,18 +3648,13 @@
       <c r="E23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="5" t="s">
         <v>95</v>
       </c>
       <c r="L23" s="1">
         <v>23</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3677,18 +3674,13 @@
       <c r="E24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
       <c r="K24" s="6" t="s">
         <v>99</v>
       </c>
       <c r="L24" s="1">
         <v>24</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3708,18 +3700,13 @@
       <c r="E25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
       <c r="K25" s="6" t="s">
         <v>103</v>
       </c>
       <c r="L25" s="1">
         <v>25</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3739,18 +3726,13 @@
       <c r="E26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
       <c r="K26" s="6" t="s">
         <v>107</v>
       </c>
       <c r="L26" s="1">
         <v>26</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3770,18 +3752,13 @@
       <c r="E27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="5" t="s">
         <v>111</v>
       </c>
       <c r="L27" s="1">
         <v>27</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3801,18 +3778,13 @@
       <c r="E28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
       <c r="K28" s="6" t="s">
         <v>115</v>
       </c>
       <c r="L28" s="1">
         <v>28</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3832,18 +3804,13 @@
       <c r="E29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
       <c r="K29" s="6" t="s">
         <v>119</v>
       </c>
       <c r="L29" s="1">
         <v>29</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3863,18 +3830,13 @@
       <c r="E30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
       <c r="K30" s="6" t="s">
         <v>123</v>
       </c>
       <c r="L30" s="1">
         <v>30</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3894,18 +3856,13 @@
       <c r="E31" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
       <c r="K31" s="6" t="s">
         <v>127</v>
       </c>
       <c r="L31" s="1">
         <v>31</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3925,18 +3882,13 @@
       <c r="E32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
       <c r="K32" s="6" t="s">
         <v>131</v>
       </c>
       <c r="L32" s="1">
         <v>32</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3956,18 +3908,13 @@
       <c r="E33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
       <c r="K33" s="6" t="s">
         <v>135</v>
       </c>
       <c r="L33" s="1">
         <v>33</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3987,18 +3934,13 @@
       <c r="E34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="5" t="s">
         <v>139</v>
       </c>
       <c r="L34" s="1">
         <v>34</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4018,18 +3960,13 @@
       <c r="E35" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
       <c r="K35" s="6" t="s">
         <v>143</v>
       </c>
       <c r="L35" s="1">
         <v>35</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4049,18 +3986,13 @@
       <c r="E36" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
       <c r="K36" s="6" t="s">
         <v>147</v>
       </c>
       <c r="L36" s="1">
         <v>36</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4080,18 +4012,13 @@
       <c r="E37" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="5" t="s">
         <v>151</v>
       </c>
       <c r="L37" s="1">
         <v>37</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4111,18 +4038,13 @@
       <c r="E38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="5" t="s">
         <v>156</v>
       </c>
       <c r="L38" s="1">
         <v>37</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4142,18 +4064,13 @@
       <c r="E39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="5" t="s">
         <v>160</v>
       </c>
       <c r="L39" s="1">
         <v>37</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4173,18 +4090,13 @@
       <c r="E40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="5" t="s">
         <v>164</v>
       </c>
       <c r="L40" s="1">
         <v>37</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4204,18 +4116,13 @@
       <c r="E41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="5" t="s">
         <v>168</v>
       </c>
       <c r="L41" s="1">
         <v>37</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4235,18 +4142,13 @@
       <c r="E42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="5" t="s">
         <v>172</v>
       </c>
       <c r="L42" s="1">
         <v>38</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4266,18 +4168,13 @@
       <c r="E43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="5" t="s">
         <v>176</v>
       </c>
       <c r="L43" s="1">
         <v>38</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4297,18 +4194,13 @@
       <c r="E44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
       <c r="K44" s="6" t="s">
         <v>180</v>
       </c>
       <c r="L44" s="1">
         <v>38</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4328,18 +4220,13 @@
       <c r="E45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="5" t="s">
         <v>184</v>
       </c>
       <c r="L45" s="1">
         <v>38</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4359,18 +4246,13 @@
       <c r="E46" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="5" t="s">
         <v>188</v>
       </c>
       <c r="L46" s="1">
         <v>38</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4390,18 +4272,13 @@
       <c r="E47" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="5" t="s">
         <v>192</v>
       </c>
       <c r="L47" s="1">
         <v>39</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4421,18 +4298,13 @@
       <c r="E48" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="5" t="s">
         <v>196</v>
       </c>
       <c r="L48" s="1">
         <v>39</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4452,18 +4324,13 @@
       <c r="E49" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="5" t="s">
         <v>200</v>
       </c>
       <c r="L49" s="1">
         <v>39</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4483,18 +4350,13 @@
       <c r="E50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="5" t="s">
         <v>204</v>
       </c>
       <c r="L50" s="1">
         <v>39</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4514,18 +4376,13 @@
       <c r="E51" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="5" t="s">
         <v>200</v>
       </c>
       <c r="L51" s="1">
         <v>39</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4545,18 +4402,13 @@
       <c r="E52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="4" t="s">
+      <c r="K52" s="5" t="s">
         <v>211</v>
       </c>
       <c r="L52" s="1">
         <v>39</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4576,18 +4428,13 @@
       <c r="E53" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="5" t="s">
         <v>215</v>
       </c>
       <c r="L53" s="1">
         <v>39</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4607,18 +4454,13 @@
       <c r="E54" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="4" t="s">
+      <c r="K54" s="5" t="s">
         <v>219</v>
       </c>
       <c r="L54" s="1">
         <v>39</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4638,18 +4480,13 @@
       <c r="E55" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="4" t="s">
+      <c r="K55" s="5" t="s">
         <v>223</v>
       </c>
       <c r="L55" s="1">
         <v>39</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4669,18 +4506,13 @@
       <c r="E56" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="5" t="s">
         <v>227</v>
       </c>
       <c r="L56" s="1">
         <v>39</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4700,18 +4532,13 @@
       <c r="E57" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="5" t="s">
         <v>231</v>
       </c>
       <c r="L57" s="1">
         <v>39</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4731,18 +4558,13 @@
       <c r="E58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="5" t="s">
         <v>235</v>
       </c>
       <c r="L58" s="1">
         <v>39</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4762,18 +4584,13 @@
       <c r="E59" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="5" t="s">
         <v>239</v>
       </c>
       <c r="L59" s="1">
         <v>39</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4793,18 +4610,13 @@
       <c r="E60" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="5" t="s">
         <v>243</v>
       </c>
       <c r="L60" s="1">
         <v>39</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4824,18 +4636,13 @@
       <c r="E61" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="5" t="s">
         <v>247</v>
       </c>
       <c r="L61" s="1">
         <v>39</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4855,18 +4662,13 @@
       <c r="E62" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="5" t="s">
         <v>251</v>
       </c>
       <c r="L62" s="1">
         <v>39</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4886,18 +4688,13 @@
       <c r="E63" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="4" t="s">
+      <c r="K63" s="5" t="s">
         <v>255</v>
       </c>
       <c r="L63" s="1">
         <v>42</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4917,18 +4714,13 @@
       <c r="E64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="5" t="s">
         <v>259</v>
       </c>
       <c r="L64" s="1">
         <v>42</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4948,18 +4740,13 @@
       <c r="E65" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="5" t="s">
         <v>263</v>
       </c>
       <c r="L65" s="1">
         <v>42</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4979,18 +4766,13 @@
       <c r="E66" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="4" t="s">
+      <c r="K66" s="5" t="s">
         <v>267</v>
       </c>
       <c r="L66" s="1">
         <v>42</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5010,18 +4792,13 @@
       <c r="E67" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="4" t="s">
+      <c r="K67" s="5" t="s">
         <v>271</v>
       </c>
       <c r="L67" s="1">
         <v>43</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5041,18 +4818,13 @@
       <c r="E68" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="4" t="s">
+      <c r="K68" s="5" t="s">
         <v>275</v>
       </c>
       <c r="L68" s="1">
         <v>43</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5072,18 +4844,13 @@
       <c r="E69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="5" t="s">
         <v>279</v>
       </c>
       <c r="L69" s="1">
         <v>43</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5103,18 +4870,13 @@
       <c r="E70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="4" t="s">
+      <c r="K70" s="5" t="s">
         <v>283</v>
       </c>
       <c r="L70" s="1">
         <v>43</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5134,18 +4896,13 @@
       <c r="E71" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="4" t="s">
+      <c r="K71" s="5" t="s">
         <v>287</v>
       </c>
       <c r="L71" s="1">
         <v>43</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5165,18 +4922,13 @@
       <c r="E72" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="5" t="s">
         <v>291</v>
       </c>
       <c r="L72" s="1">
         <v>74</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="M72" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5196,18 +4948,13 @@
       <c r="E73" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="4" t="s">
+      <c r="K73" s="5" t="s">
         <v>295</v>
       </c>
       <c r="L73" s="1">
         <v>75</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5227,18 +4974,13 @@
       <c r="E74" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="4" t="s">
+      <c r="K74" s="5" t="s">
         <v>299</v>
       </c>
       <c r="L74" s="1">
         <v>76</v>
       </c>
-      <c r="M74" s="5" t="s">
+      <c r="M74" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5258,18 +5000,13 @@
       <c r="E75" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="4" t="s">
+      <c r="K75" s="5" t="s">
         <v>303</v>
       </c>
       <c r="L75" s="1">
         <v>44</v>
       </c>
-      <c r="M75" s="5" t="s">
+      <c r="M75" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5289,18 +5026,13 @@
       <c r="E76" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="4" t="s">
+      <c r="K76" s="5" t="s">
         <v>307</v>
       </c>
       <c r="L76" s="1">
         <v>45</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5320,18 +5052,13 @@
       <c r="E77" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="4" t="s">
+      <c r="K77" s="5" t="s">
         <v>311</v>
       </c>
       <c r="L77" s="1">
         <v>44</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5351,18 +5078,13 @@
       <c r="E78" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="4" t="s">
+      <c r="K78" s="5" t="s">
         <v>315</v>
       </c>
       <c r="L78" s="1">
         <v>44</v>
       </c>
-      <c r="M78" s="5" t="s">
+      <c r="M78" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5382,18 +5104,13 @@
       <c r="E79" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="5" t="s">
         <v>319</v>
       </c>
       <c r="L79" s="1">
         <v>45</v>
       </c>
-      <c r="M79" s="5" t="s">
+      <c r="M79" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5413,18 +5130,13 @@
       <c r="E80" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="4" t="s">
+      <c r="K80" s="5" t="s">
         <v>323</v>
       </c>
       <c r="L80" s="1">
         <v>45</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5444,18 +5156,13 @@
       <c r="E81" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="4" t="s">
+      <c r="K81" s="5" t="s">
         <v>327</v>
       </c>
       <c r="L81" s="1">
         <v>66</v>
       </c>
-      <c r="M81" s="5" t="s">
+      <c r="M81" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5475,18 +5182,13 @@
       <c r="E82" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="4" t="s">
+      <c r="K82" s="5" t="s">
         <v>331</v>
       </c>
       <c r="L82" s="1">
         <v>67</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5506,18 +5208,13 @@
       <c r="E83" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="5" t="s">
         <v>335</v>
       </c>
       <c r="L83" s="1">
         <v>68</v>
       </c>
-      <c r="M83" s="5" t="s">
+      <c r="M83" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5537,18 +5234,13 @@
       <c r="E84" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="5" t="s">
         <v>339</v>
       </c>
       <c r="L84" s="1">
         <v>66</v>
       </c>
-      <c r="M84" s="5" t="s">
+      <c r="M84" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5568,18 +5260,13 @@
       <c r="E85" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="4" t="s">
+      <c r="K85" s="5" t="s">
         <v>343</v>
       </c>
       <c r="L85" s="1">
         <v>67</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5599,18 +5286,13 @@
       <c r="E86" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="5" t="s">
         <v>347</v>
       </c>
       <c r="L86" s="1">
         <v>68</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="M86" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5630,18 +5312,13 @@
       <c r="E87" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="4" t="s">
+      <c r="K87" s="5" t="s">
         <v>351</v>
       </c>
       <c r="L87" s="1">
         <v>46</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5661,18 +5338,13 @@
       <c r="E88" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="4" t="s">
+      <c r="K88" s="5" t="s">
         <v>355</v>
       </c>
       <c r="L88" s="1">
         <v>48</v>
       </c>
-      <c r="M88" s="5" t="s">
+      <c r="M88" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5692,18 +5364,13 @@
       <c r="E89" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="4" t="s">
+      <c r="K89" s="5" t="s">
         <v>359</v>
       </c>
       <c r="L89" s="1">
         <v>49</v>
       </c>
-      <c r="M89" s="5" t="s">
+      <c r="M89" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5723,18 +5390,13 @@
       <c r="E90" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="4" t="s">
+      <c r="K90" s="5" t="s">
         <v>363</v>
       </c>
       <c r="L90" s="1">
         <v>50</v>
       </c>
-      <c r="M90" s="5" t="s">
+      <c r="M90" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5754,18 +5416,13 @@
       <c r="E91" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="4" t="s">
+      <c r="K91" s="5" t="s">
         <v>367</v>
       </c>
       <c r="L91" s="1">
         <v>49</v>
       </c>
-      <c r="M91" s="5" t="s">
+      <c r="M91" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5785,18 +5442,13 @@
       <c r="E92" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="4" t="s">
+      <c r="K92" s="5" t="s">
         <v>371</v>
       </c>
       <c r="L92" s="1">
         <v>50</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="M92" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5816,18 +5468,13 @@
       <c r="E93" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="4" t="s">
+      <c r="K93" s="5" t="s">
         <v>375</v>
       </c>
       <c r="L93" s="1">
         <v>46</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5847,18 +5494,13 @@
       <c r="E94" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="4" t="s">
+      <c r="K94" s="5" t="s">
         <v>379</v>
       </c>
       <c r="L94" s="1">
         <v>51</v>
       </c>
-      <c r="M94" s="5" t="s">
+      <c r="M94" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5878,18 +5520,13 @@
       <c r="E95" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="4" t="s">
+      <c r="K95" s="5" t="s">
         <v>383</v>
       </c>
       <c r="L95" s="1">
         <v>52</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="M95" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5909,18 +5546,13 @@
       <c r="E96" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="5" t="s">
         <v>387</v>
       </c>
       <c r="L96" s="1">
         <v>53</v>
       </c>
-      <c r="M96" s="5" t="s">
+      <c r="M96" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5940,18 +5572,13 @@
       <c r="E97" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="4" t="s">
+      <c r="K97" s="5" t="s">
         <v>391</v>
       </c>
       <c r="L97" s="1">
         <v>54</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5971,18 +5598,13 @@
       <c r="E98" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="4" t="s">
+      <c r="K98" s="5" t="s">
         <v>395</v>
       </c>
       <c r="L98" s="1">
         <v>55</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6002,18 +5624,13 @@
       <c r="E99" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="4" t="s">
+      <c r="K99" s="5" t="s">
         <v>399</v>
       </c>
       <c r="L99" s="1">
         <v>69</v>
       </c>
-      <c r="M99" s="5" t="s">
+      <c r="M99" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6033,18 +5650,13 @@
       <c r="E100" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="4" t="s">
+      <c r="K100" s="5" t="s">
         <v>403</v>
       </c>
       <c r="L100" s="1">
         <v>70</v>
       </c>
-      <c r="M100" s="5" t="s">
+      <c r="M100" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6064,18 +5676,13 @@
       <c r="E101" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="4" t="s">
+      <c r="K101" s="5" t="s">
         <v>407</v>
       </c>
       <c r="L101" s="1">
         <v>71</v>
       </c>
-      <c r="M101" s="5" t="s">
+      <c r="M101" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6095,18 +5702,13 @@
       <c r="E102" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="4" t="s">
+      <c r="K102" s="5" t="s">
         <v>411</v>
       </c>
       <c r="L102" s="1">
         <v>72</v>
       </c>
-      <c r="M102" s="5" t="s">
+      <c r="M102" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6126,18 +5728,13 @@
       <c r="E103" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="4" t="s">
+      <c r="K103" s="5" t="s">
         <v>415</v>
       </c>
       <c r="L103" s="1">
         <v>73</v>
       </c>
-      <c r="M103" s="5" t="s">
+      <c r="M103" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6157,18 +5754,13 @@
       <c r="E104" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="4" t="s">
+      <c r="K104" s="5" t="s">
         <v>419</v>
       </c>
       <c r="L104" s="1">
         <v>101</v>
       </c>
-      <c r="M104" s="5" t="s">
+      <c r="M104" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6188,18 +5780,13 @@
       <c r="E105" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="4" t="s">
+      <c r="K105" s="5" t="s">
         <v>423</v>
       </c>
       <c r="L105" s="1">
         <v>102</v>
       </c>
-      <c r="M105" s="5" t="s">
+      <c r="M105" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6219,18 +5806,13 @@
       <c r="E106" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="4" t="s">
+      <c r="K106" s="5" t="s">
         <v>427</v>
       </c>
       <c r="L106" s="1">
         <v>103</v>
       </c>
-      <c r="M106" s="5" t="s">
+      <c r="M106" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6250,18 +5832,13 @@
       <c r="E107" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
       <c r="K107" s="6" t="s">
         <v>431</v>
       </c>
       <c r="L107" s="1">
         <v>104</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="M107" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6272,7 +5849,7 @@
       <c r="L108" s="1">
         <v>105</v>
       </c>
-      <c r="M108" s="5" t="s">
+      <c r="M108" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6283,7 +5860,7 @@
       <c r="L109" s="1">
         <v>106</v>
       </c>
-      <c r="M109" s="5" t="s">
+      <c r="M109" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6294,7 +5871,7 @@
       <c r="L110" s="1">
         <v>107</v>
       </c>
-      <c r="M110" s="5" t="s">
+      <c r="M110" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6305,7 +5882,7 @@
       <c r="L111" s="1">
         <v>108</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6316,7 +5893,7 @@
       <c r="L112" s="1">
         <v>109</v>
       </c>
-      <c r="M112" s="5" t="s">
+      <c r="M112" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6327,19 +5904,19 @@
       <c r="L113" s="1">
         <v>110</v>
       </c>
-      <c r="M113" s="5" t="s">
+      <c r="M113" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" spans="11:13">
       <c r="K114" s="1" t="s">
-        <v>7</v>
+        <v>438</v>
       </c>
       <c r="L114" s="1">
         <v>201</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>438</v>
+      <c r="M114" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" spans="11:13">
@@ -6349,8 +5926,8 @@
       <c r="L115" s="1">
         <v>202</v>
       </c>
-      <c r="M115" s="5" t="s">
-        <v>438</v>
+      <c r="M115" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" spans="11:13">
@@ -6360,8 +5937,8 @@
       <c r="L116" s="1">
         <v>203</v>
       </c>
-      <c r="M116" s="5" t="s">
-        <v>438</v>
+      <c r="M116" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" spans="11:13">
@@ -6371,8 +5948,8 @@
       <c r="L117" s="1">
         <v>204</v>
       </c>
-      <c r="M117" s="5" t="s">
-        <v>438</v>
+      <c r="M117" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" spans="11:13">
@@ -6382,8 +5959,8 @@
       <c r="L118" s="1">
         <v>205</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>438</v>
+      <c r="M118" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" spans="11:13">
@@ -6393,8 +5970,8 @@
       <c r="L119" s="1">
         <v>206</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>438</v>
+      <c r="M119" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" spans="11:13">
@@ -6404,8 +5981,8 @@
       <c r="L120" s="1">
         <v>207</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>438</v>
+      <c r="M120" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" spans="11:13">
@@ -6415,8 +5992,8 @@
       <c r="L121" s="1">
         <v>208</v>
       </c>
-      <c r="M121" s="5" t="s">
-        <v>438</v>
+      <c r="M121" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" spans="11:13">
@@ -6426,8 +6003,8 @@
       <c r="L122" s="1">
         <v>209</v>
       </c>
-      <c r="M122" s="5" t="s">
-        <v>438</v>
+      <c r="M122" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" spans="11:13">
@@ -6437,8 +6014,8 @@
       <c r="L123" s="1">
         <v>210</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>438</v>
+      <c r="M123" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" spans="11:13">
@@ -6448,8 +6025,8 @@
       <c r="L124" s="1">
         <v>211</v>
       </c>
-      <c r="M124" s="5" t="s">
-        <v>438</v>
+      <c r="M124" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" spans="11:13">
@@ -6459,8 +6036,8 @@
       <c r="L125" s="1">
         <v>212</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>438</v>
+      <c r="M125" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" spans="11:13">
@@ -6470,8 +6047,8 @@
       <c r="L126" s="1">
         <v>213</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>438</v>
+      <c r="M126" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" spans="11:13">
@@ -6481,41 +6058,41 @@
       <c r="L127" s="1">
         <v>214</v>
       </c>
-      <c r="M127" s="5" t="s">
-        <v>438</v>
+      <c r="M127" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" spans="11:13">
       <c r="K128" s="1" t="s">
-        <v>64</v>
+        <v>440</v>
       </c>
       <c r="L128" s="1">
         <v>215</v>
       </c>
-      <c r="M128" s="5" t="s">
-        <v>438</v>
+      <c r="M128" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="1" spans="11:13">
       <c r="K129" s="1" t="s">
-        <v>68</v>
+        <v>441</v>
       </c>
       <c r="L129" s="1">
         <v>216</v>
       </c>
-      <c r="M129" s="5" t="s">
-        <v>438</v>
+      <c r="M129" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="1" spans="11:13">
       <c r="K130" s="1" t="s">
-        <v>72</v>
+        <v>442</v>
       </c>
       <c r="L130" s="1">
         <v>217</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>438</v>
+      <c r="M130" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="1" spans="11:13">
@@ -6525,8 +6102,8 @@
       <c r="L131" s="1">
         <v>218</v>
       </c>
-      <c r="M131" s="5" t="s">
-        <v>438</v>
+      <c r="M131" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="1" spans="11:13">
@@ -6536,8 +6113,8 @@
       <c r="L132" s="1">
         <v>219</v>
       </c>
-      <c r="M132" s="5" t="s">
-        <v>438</v>
+      <c r="M132" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="1" spans="11:13">
@@ -6547,8 +6124,8 @@
       <c r="L133" s="1">
         <v>220</v>
       </c>
-      <c r="M133" s="5" t="s">
-        <v>438</v>
+      <c r="M133" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" spans="11:13">
@@ -6558,8 +6135,8 @@
       <c r="L134" s="1">
         <v>221</v>
       </c>
-      <c r="M134" s="5" t="s">
-        <v>438</v>
+      <c r="M134" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" spans="11:13">
@@ -6569,8 +6146,8 @@
       <c r="L135" s="1">
         <v>222</v>
       </c>
-      <c r="M135" s="5" t="s">
-        <v>438</v>
+      <c r="M135" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="1" spans="11:13">
@@ -6580,8 +6157,8 @@
       <c r="L136" s="1">
         <v>223</v>
       </c>
-      <c r="M136" s="5" t="s">
-        <v>438</v>
+      <c r="M136" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="1" spans="11:13">
@@ -6591,8 +6168,8 @@
       <c r="L137" s="1">
         <v>224</v>
       </c>
-      <c r="M137" s="5" t="s">
-        <v>438</v>
+      <c r="M137" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="1" spans="11:13">
@@ -6602,8 +6179,8 @@
       <c r="L138" s="1">
         <v>225</v>
       </c>
-      <c r="M138" s="5" t="s">
-        <v>438</v>
+      <c r="M138" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="1" spans="11:13">
@@ -6613,8 +6190,8 @@
       <c r="L139" s="1">
         <v>226</v>
       </c>
-      <c r="M139" s="5" t="s">
-        <v>438</v>
+      <c r="M139" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="1" spans="11:13">
@@ -6624,8 +6201,8 @@
       <c r="L140" s="1">
         <v>227</v>
       </c>
-      <c r="M140" s="5" t="s">
-        <v>438</v>
+      <c r="M140" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" spans="11:13">
@@ -6635,8 +6212,8 @@
       <c r="L141" s="1">
         <v>228</v>
       </c>
-      <c r="M141" s="5" t="s">
-        <v>438</v>
+      <c r="M141" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" spans="11:13">
@@ -6646,8 +6223,8 @@
       <c r="L142" s="1">
         <v>229</v>
       </c>
-      <c r="M142" s="5" t="s">
-        <v>438</v>
+      <c r="M142" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" spans="11:13">
@@ -6657,8 +6234,8 @@
       <c r="L143" s="1">
         <v>230</v>
       </c>
-      <c r="M143" s="5" t="s">
-        <v>438</v>
+      <c r="M143" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" spans="11:13">
@@ -6668,8 +6245,8 @@
       <c r="L144" s="1">
         <v>231</v>
       </c>
-      <c r="M144" s="5" t="s">
-        <v>438</v>
+      <c r="M144" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" spans="11:13">
@@ -6679,8 +6256,8 @@
       <c r="L145" s="1">
         <v>232</v>
       </c>
-      <c r="M145" s="5" t="s">
-        <v>438</v>
+      <c r="M145" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="1" spans="11:13">
@@ -6690,8 +6267,8 @@
       <c r="L146" s="1">
         <v>233</v>
       </c>
-      <c r="M146" s="5" t="s">
-        <v>438</v>
+      <c r="M146" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="1" spans="11:13">
@@ -6701,8 +6278,8 @@
       <c r="L147" s="1">
         <v>234</v>
       </c>
-      <c r="M147" s="5" t="s">
-        <v>438</v>
+      <c r="M147" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="1" spans="11:13">
@@ -6712,8 +6289,8 @@
       <c r="L148" s="1">
         <v>235</v>
       </c>
-      <c r="M148" s="5" t="s">
-        <v>438</v>
+      <c r="M148" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="1" spans="11:13">
@@ -6723,8 +6300,8 @@
       <c r="L149" s="1">
         <v>236</v>
       </c>
-      <c r="M149" s="5" t="s">
-        <v>438</v>
+      <c r="M149" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="1" spans="11:13">
@@ -6734,8 +6311,8 @@
       <c r="L150" s="1">
         <v>237</v>
       </c>
-      <c r="M150" s="5" t="s">
-        <v>438</v>
+      <c r="M150" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" spans="11:13">
@@ -6745,8 +6322,8 @@
       <c r="L151" s="1">
         <v>238</v>
       </c>
-      <c r="M151" s="5" t="s">
-        <v>438</v>
+      <c r="M151" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" spans="11:13">
@@ -6756,8 +6333,8 @@
       <c r="L152" s="1">
         <v>239</v>
       </c>
-      <c r="M152" s="5" t="s">
-        <v>438</v>
+      <c r="M152" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="1" spans="11:13">
@@ -6767,8 +6344,8 @@
       <c r="L153" s="1">
         <v>240</v>
       </c>
-      <c r="M153" s="5" t="s">
-        <v>438</v>
+      <c r="M153" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" spans="11:13">
@@ -6778,8 +6355,8 @@
       <c r="L154" s="1">
         <v>241</v>
       </c>
-      <c r="M154" s="5" t="s">
-        <v>438</v>
+      <c r="M154" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" spans="11:13">
@@ -6789,8 +6366,8 @@
       <c r="L155" s="1">
         <v>242</v>
       </c>
-      <c r="M155" s="5" t="s">
-        <v>438</v>
+      <c r="M155" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="1" spans="11:13">
@@ -6800,8 +6377,8 @@
       <c r="L156" s="1">
         <v>243</v>
       </c>
-      <c r="M156" s="5" t="s">
-        <v>438</v>
+      <c r="M156" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="1" spans="11:13">
@@ -6811,8 +6388,8 @@
       <c r="L157" s="1">
         <v>244</v>
       </c>
-      <c r="M157" s="5" t="s">
-        <v>438</v>
+      <c r="M157" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="1" spans="11:13">
@@ -6822,8 +6399,8 @@
       <c r="L158" s="1">
         <v>245</v>
       </c>
-      <c r="M158" s="5" t="s">
-        <v>438</v>
+      <c r="M158" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="1" spans="11:13">
@@ -6833,8 +6410,8 @@
       <c r="L159" s="1">
         <v>246</v>
       </c>
-      <c r="M159" s="5" t="s">
-        <v>438</v>
+      <c r="M159" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="1" spans="11:13">
@@ -6844,8 +6421,8 @@
       <c r="L160" s="1">
         <v>247</v>
       </c>
-      <c r="M160" s="5" t="s">
-        <v>438</v>
+      <c r="M160" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="1" spans="11:13">
@@ -6855,8 +6432,8 @@
       <c r="L161" s="1">
         <v>248</v>
       </c>
-      <c r="M161" s="5" t="s">
-        <v>438</v>
+      <c r="M161" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="1" spans="11:13">
@@ -6866,8 +6443,8 @@
       <c r="L162" s="1">
         <v>249</v>
       </c>
-      <c r="M162" s="5" t="s">
-        <v>438</v>
+      <c r="M162" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" spans="11:13">
@@ -6877,8 +6454,8 @@
       <c r="L163" s="1">
         <v>250</v>
       </c>
-      <c r="M163" s="5" t="s">
-        <v>438</v>
+      <c r="M163" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="1" spans="11:13">
@@ -6888,8 +6465,8 @@
       <c r="L164" s="1">
         <v>251</v>
       </c>
-      <c r="M164" s="5" t="s">
-        <v>438</v>
+      <c r="M164" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="1" spans="11:13">
@@ -6899,8 +6476,8 @@
       <c r="L165" s="1">
         <v>252</v>
       </c>
-      <c r="M165" s="5" t="s">
-        <v>438</v>
+      <c r="M165" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="1" spans="11:13">
@@ -6910,8 +6487,8 @@
       <c r="L166" s="1">
         <v>253</v>
       </c>
-      <c r="M166" s="5" t="s">
-        <v>438</v>
+      <c r="M166" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="1" spans="11:13">
@@ -6921,8 +6498,8 @@
       <c r="L167" s="1">
         <v>254</v>
       </c>
-      <c r="M167" s="5" t="s">
-        <v>438</v>
+      <c r="M167" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" spans="11:13">
@@ -6932,8 +6509,8 @@
       <c r="L168" s="1">
         <v>255</v>
       </c>
-      <c r="M168" s="5" t="s">
-        <v>438</v>
+      <c r="M168" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" spans="11:13">
@@ -6943,8 +6520,8 @@
       <c r="L169" s="1">
         <v>256</v>
       </c>
-      <c r="M169" s="5" t="s">
-        <v>438</v>
+      <c r="M169" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" spans="11:13">
@@ -6954,8 +6531,8 @@
       <c r="L170" s="1">
         <v>257</v>
       </c>
-      <c r="M170" s="5" t="s">
-        <v>438</v>
+      <c r="M170" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" spans="11:13">
@@ -6965,8 +6542,8 @@
       <c r="L171" s="1">
         <v>258</v>
       </c>
-      <c r="M171" s="5" t="s">
-        <v>438</v>
+      <c r="M171" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" spans="11:13">
@@ -6976,8 +6553,8 @@
       <c r="L172" s="1">
         <v>259</v>
       </c>
-      <c r="M172" s="5" t="s">
-        <v>438</v>
+      <c r="M172" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" spans="11:13">
@@ -6987,8 +6564,8 @@
       <c r="L173" s="1">
         <v>260</v>
       </c>
-      <c r="M173" s="5" t="s">
-        <v>438</v>
+      <c r="M173" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" spans="11:13">
@@ -6998,8 +6575,8 @@
       <c r="L174" s="1">
         <v>261</v>
       </c>
-      <c r="M174" s="5" t="s">
-        <v>438</v>
+      <c r="M174" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="1" spans="11:13">
@@ -7009,8 +6586,8 @@
       <c r="L175" s="1">
         <v>262</v>
       </c>
-      <c r="M175" s="5" t="s">
-        <v>438</v>
+      <c r="M175" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" spans="11:13">
@@ -7020,8 +6597,8 @@
       <c r="L176" s="1">
         <v>263</v>
       </c>
-      <c r="M176" s="5" t="s">
-        <v>438</v>
+      <c r="M176" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" spans="11:13">
@@ -7031,8 +6608,8 @@
       <c r="L177" s="1">
         <v>264</v>
       </c>
-      <c r="M177" s="5" t="s">
-        <v>438</v>
+      <c r="M177" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" spans="11:13">
@@ -7042,8 +6619,8 @@
       <c r="L178" s="1">
         <v>265</v>
       </c>
-      <c r="M178" s="5" t="s">
-        <v>438</v>
+      <c r="M178" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="1" spans="11:13">
@@ -7053,8 +6630,8 @@
       <c r="L179" s="1">
         <v>266</v>
       </c>
-      <c r="M179" s="5" t="s">
-        <v>438</v>
+      <c r="M179" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="1" spans="11:13">
@@ -7064,8 +6641,8 @@
       <c r="L180" s="1">
         <v>267</v>
       </c>
-      <c r="M180" s="5" t="s">
-        <v>438</v>
+      <c r="M180" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" spans="11:13">
@@ -7075,8 +6652,8 @@
       <c r="L181" s="1">
         <v>268</v>
       </c>
-      <c r="M181" s="5" t="s">
-        <v>438</v>
+      <c r="M181" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" spans="11:13">
@@ -7086,8 +6663,8 @@
       <c r="L182" s="1">
         <v>269</v>
       </c>
-      <c r="M182" s="5" t="s">
-        <v>438</v>
+      <c r="M182" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" spans="11:13">
@@ -7097,8 +6674,8 @@
       <c r="L183" s="1">
         <v>270</v>
       </c>
-      <c r="M183" s="5" t="s">
-        <v>438</v>
+      <c r="M183" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="1" spans="11:13">
@@ -7108,8 +6685,8 @@
       <c r="L184" s="1">
         <v>271</v>
       </c>
-      <c r="M184" s="5" t="s">
-        <v>438</v>
+      <c r="M184" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="1" spans="11:13">
@@ -7119,8 +6696,8 @@
       <c r="L185" s="1">
         <v>272</v>
       </c>
-      <c r="M185" s="5" t="s">
-        <v>438</v>
+      <c r="M185" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="1" spans="11:13">
@@ -7130,8 +6707,8 @@
       <c r="L186" s="1">
         <v>273</v>
       </c>
-      <c r="M186" s="5" t="s">
-        <v>438</v>
+      <c r="M186" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" spans="11:13">
@@ -7141,8 +6718,8 @@
       <c r="L187" s="1">
         <v>274</v>
       </c>
-      <c r="M187" s="5" t="s">
-        <v>438</v>
+      <c r="M187" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" spans="11:13">
@@ -7152,8 +6729,8 @@
       <c r="L188" s="1">
         <v>275</v>
       </c>
-      <c r="M188" s="5" t="s">
-        <v>438</v>
+      <c r="M188" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" spans="11:13">
@@ -7163,8 +6740,8 @@
       <c r="L189" s="1">
         <v>276</v>
       </c>
-      <c r="M189" s="5" t="s">
-        <v>438</v>
+      <c r="M189" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" spans="11:13">
@@ -7174,8 +6751,8 @@
       <c r="L190" s="1">
         <v>277</v>
       </c>
-      <c r="M190" s="5" t="s">
-        <v>438</v>
+      <c r="M190" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" spans="11:13">
@@ -7185,8 +6762,8 @@
       <c r="L191" s="1">
         <v>278</v>
       </c>
-      <c r="M191" s="5" t="s">
-        <v>438</v>
+      <c r="M191" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" spans="11:13">
@@ -7196,8 +6773,8 @@
       <c r="L192" s="1">
         <v>279</v>
       </c>
-      <c r="M192" s="5" t="s">
-        <v>438</v>
+      <c r="M192" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" spans="11:13">
@@ -7207,8 +6784,8 @@
       <c r="L193" s="1">
         <v>280</v>
       </c>
-      <c r="M193" s="5" t="s">
-        <v>438</v>
+      <c r="M193" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" spans="11:13">
@@ -7218,8 +6795,8 @@
       <c r="L194" s="1">
         <v>281</v>
       </c>
-      <c r="M194" s="5" t="s">
-        <v>438</v>
+      <c r="M194" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" spans="11:13">
@@ -7229,8 +6806,8 @@
       <c r="L195" s="1">
         <v>282</v>
       </c>
-      <c r="M195" s="5" t="s">
-        <v>438</v>
+      <c r="M195" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="1" spans="11:13">
@@ -7240,8 +6817,8 @@
       <c r="L196" s="1">
         <v>283</v>
       </c>
-      <c r="M196" s="5" t="s">
-        <v>438</v>
+      <c r="M196" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="1" spans="11:13">
@@ -7251,8 +6828,8 @@
       <c r="L197" s="1">
         <v>284</v>
       </c>
-      <c r="M197" s="5" t="s">
-        <v>438</v>
+      <c r="M197" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="1" spans="11:13">
@@ -7262,8 +6839,8 @@
       <c r="L198" s="1">
         <v>285</v>
       </c>
-      <c r="M198" s="5" t="s">
-        <v>438</v>
+      <c r="M198" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" spans="11:13">
@@ -7273,8 +6850,8 @@
       <c r="L199" s="1">
         <v>286</v>
       </c>
-      <c r="M199" s="5" t="s">
-        <v>438</v>
+      <c r="M199" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" spans="11:13">
@@ -7284,8 +6861,8 @@
       <c r="L200" s="1">
         <v>287</v>
       </c>
-      <c r="M200" s="5" t="s">
-        <v>438</v>
+      <c r="M200" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="1" spans="11:13">
@@ -7295,8 +6872,8 @@
       <c r="L201" s="1">
         <v>288</v>
       </c>
-      <c r="M201" s="5" t="s">
-        <v>438</v>
+      <c r="M201" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="1" spans="11:13">
@@ -7306,8 +6883,8 @@
       <c r="L202" s="1">
         <v>289</v>
       </c>
-      <c r="M202" s="5" t="s">
-        <v>438</v>
+      <c r="M202" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" spans="11:13">
@@ -7317,8 +6894,8 @@
       <c r="L203" s="1">
         <v>290</v>
       </c>
-      <c r="M203" s="5" t="s">
-        <v>438</v>
+      <c r="M203" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="1" spans="11:13">
@@ -7328,8 +6905,8 @@
       <c r="L204" s="1">
         <v>291</v>
       </c>
-      <c r="M204" s="5" t="s">
-        <v>438</v>
+      <c r="M204" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="1" spans="11:13">
@@ -7339,8 +6916,8 @@
       <c r="L205" s="1">
         <v>292</v>
       </c>
-      <c r="M205" s="5" t="s">
-        <v>438</v>
+      <c r="M205" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" spans="11:13">
@@ -7350,8 +6927,8 @@
       <c r="L206" s="1">
         <v>293</v>
       </c>
-      <c r="M206" s="5" t="s">
-        <v>438</v>
+      <c r="M206" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="1" spans="11:13">
@@ -7361,8 +6938,8 @@
       <c r="L207" s="1">
         <v>294</v>
       </c>
-      <c r="M207" s="5" t="s">
-        <v>438</v>
+      <c r="M207" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="1" spans="11:13">
@@ -7372,8 +6949,8 @@
       <c r="L208" s="1">
         <v>295</v>
       </c>
-      <c r="M208" s="5" t="s">
-        <v>438</v>
+      <c r="M208" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="209" s="1" customFormat="1" spans="11:13">
@@ -7383,8 +6960,8 @@
       <c r="L209" s="1">
         <v>296</v>
       </c>
-      <c r="M209" s="5" t="s">
-        <v>438</v>
+      <c r="M209" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="210" s="1" customFormat="1" spans="11:13">
@@ -7394,8 +6971,8 @@
       <c r="L210" s="1">
         <v>297</v>
       </c>
-      <c r="M210" s="5" t="s">
-        <v>438</v>
+      <c r="M210" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="211" s="1" customFormat="1" spans="11:13">
@@ -7405,8 +6982,8 @@
       <c r="L211" s="1">
         <v>298</v>
       </c>
-      <c r="M211" s="5" t="s">
-        <v>438</v>
+      <c r="M211" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="212" s="1" customFormat="1" spans="11:13">
@@ -7416,8 +6993,8 @@
       <c r="L212" s="1">
         <v>299</v>
       </c>
-      <c r="M212" s="5" t="s">
-        <v>438</v>
+      <c r="M212" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="213" s="1" customFormat="1" spans="11:13">
@@ -7427,8 +7004,8 @@
       <c r="L213" s="1">
         <v>300</v>
       </c>
-      <c r="M213" s="5" t="s">
-        <v>438</v>
+      <c r="M213" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="214" s="1" customFormat="1" spans="11:13">
@@ -7438,8 +7015,8 @@
       <c r="L214" s="1">
         <v>301</v>
       </c>
-      <c r="M214" s="5" t="s">
-        <v>438</v>
+      <c r="M214" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="215" s="1" customFormat="1" spans="11:13">
@@ -7449,8 +7026,8 @@
       <c r="L215" s="1">
         <v>302</v>
       </c>
-      <c r="M215" s="5" t="s">
-        <v>438</v>
+      <c r="M215" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="216" s="1" customFormat="1" spans="11:13">
@@ -7460,8 +7037,8 @@
       <c r="L216" s="1">
         <v>303</v>
       </c>
-      <c r="M216" s="5" t="s">
-        <v>438</v>
+      <c r="M216" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="217" s="1" customFormat="1" spans="11:13">
@@ -7471,8 +7048,8 @@
       <c r="L217" s="1">
         <v>304</v>
       </c>
-      <c r="M217" s="5" t="s">
-        <v>438</v>
+      <c r="M217" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="218" s="1" customFormat="1" spans="11:13">
@@ -7482,8 +7059,8 @@
       <c r="L218" s="1">
         <v>305</v>
       </c>
-      <c r="M218" s="5" t="s">
-        <v>438</v>
+      <c r="M218" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="219" s="1" customFormat="1" spans="11:13">
@@ -7493,8 +7070,8 @@
       <c r="L219" s="1">
         <v>306</v>
       </c>
-      <c r="M219" s="5" t="s">
-        <v>438</v>
+      <c r="M219" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
